--- a/examples check.xlsx
+++ b/examples check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssyram/workspace/github/ProgramAnalyser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E5C1B4-A5D7-0A46-91E0-9DC3A604BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71867D00-AFD8-8641-8575-C7B37427836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="1100" windowWidth="27840" windowHeight="16560" xr2:uid="{95FD91DC-DE66-174A-98E7-CAA5013FE4EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Series</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,30 @@
   </si>
   <si>
     <t>To check -- the r_2 should be r_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. no-scoring should be non-scoring; 2. …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait to discuss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_money:10~20 NOT p_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_count:0~30 NOT p_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the max is different</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this max is the same</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,10 +278,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,17 +602,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDB946B-5616-E043-91CB-107BF66404BA}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
@@ -601,18 +625,18 @@
       <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -621,25 +645,25 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E3">
@@ -647,14 +671,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E4">
@@ -662,14 +686,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E5">
@@ -677,14 +701,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E6">
@@ -692,14 +716,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E7">
@@ -707,45 +731,45 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -754,7 +778,7 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E12">
@@ -762,7 +786,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -777,7 +801,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -790,134 +814,200 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="17">
-      <c r="A17" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17">
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" ht="34">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17">
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="C8:E11"/>
     <mergeCell ref="C15:E16"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="C24:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
